--- a/example_output/csv_data/table_vmtp_wind.xlsx
+++ b/example_output/csv_data/table_vmtp_wind.xlsx
@@ -1100,7 +1100,7 @@
         <v>5.713043858886556</v>
       </c>
       <c r="C13">
-        <v>6.133657443538319</v>
+        <v>6.127418405781572</v>
       </c>
       <c r="D13">
         <v>5.66237353392683</v>
@@ -1133,7 +1133,7 @@
         <v>6.023004257613558</v>
       </c>
       <c r="N13">
-        <v>6.13025947614142</v>
+        <v>6.124938087420014</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1141,13 +1141,13 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>6.175312311474556</v>
+        <v>6.104260631162553</v>
       </c>
       <c r="C14">
-        <v>6.522270954380997</v>
+        <v>6.462910517568996</v>
       </c>
       <c r="D14">
-        <v>6.135807478460472</v>
+        <v>6.104540678677291</v>
       </c>
       <c r="E14">
         <v>5.787974993357264</v>
@@ -1168,16 +1168,16 @@
         <v>6.026020157473043</v>
       </c>
       <c r="K14">
-        <v>6.356263569812953</v>
+        <v>6.226709285150091</v>
       </c>
       <c r="L14">
-        <v>6.399281299992734</v>
+        <v>6.280524233815036</v>
       </c>
       <c r="M14">
-        <v>6.429515903913558</v>
+        <v>6.319915933542103</v>
       </c>
       <c r="N14">
-        <v>6.592785140249562</v>
+        <v>6.572196768447216</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1185,16 +1185,16 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>6.417661404184316</v>
+        <v>6.301891048870691</v>
       </c>
       <c r="C15">
-        <v>6.903388621668411</v>
+        <v>6.785672035018277</v>
       </c>
       <c r="D15">
-        <v>6.432576628330159</v>
+        <v>6.376395790513532</v>
       </c>
       <c r="E15">
-        <v>6.160134889973829</v>
+        <v>6.121230078868197</v>
       </c>
       <c r="F15">
         <v>5.935570254983805</v>
@@ -1209,19 +1209,19 @@
         <v>5.612334726713017</v>
       </c>
       <c r="J15">
-        <v>6.324579343023223</v>
+        <v>6.200259585932328</v>
       </c>
       <c r="K15">
-        <v>6.548668249056991</v>
+        <v>6.548625524304712</v>
       </c>
       <c r="L15">
-        <v>6.808479641402742</v>
+        <v>6.77349986950787</v>
       </c>
       <c r="M15">
-        <v>6.804518993284371</v>
+        <v>6.756039347987783</v>
       </c>
       <c r="N15">
-        <v>6.969674639087772</v>
+        <v>6.869226906679635</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1229,22 +1229,22 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>6.777528874209725</v>
+        <v>6.742501750480489</v>
       </c>
       <c r="C16">
         <v>7.1650500235485</v>
       </c>
       <c r="D16">
-        <v>6.792403561581358</v>
+        <v>6.738106451659052</v>
       </c>
       <c r="E16">
-        <v>6.360413502423937</v>
+        <v>6.292997314610197</v>
       </c>
       <c r="F16">
-        <v>6.290527644876179</v>
+        <v>6.214665192127313</v>
       </c>
       <c r="G16">
-        <v>6.108099882165217</v>
+        <v>6.072786331362679</v>
       </c>
       <c r="H16">
         <v>5.690419506793607</v>
@@ -1256,13 +1256,13 @@
         <v>6.491289787230616</v>
       </c>
       <c r="K16">
-        <v>7.038112380235664</v>
+        <v>6.83857291476458</v>
       </c>
       <c r="L16">
-        <v>7.093204709887928</v>
+        <v>7.004091608275051</v>
       </c>
       <c r="M16">
-        <v>7.107853824111216</v>
+        <v>7.10093700329976</v>
       </c>
       <c r="N16">
         <v>7.326968592997758</v>
@@ -1273,34 +1273,34 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>7.078650706205269</v>
+        <v>6.855580305962109</v>
       </c>
       <c r="C17">
         <v>7.659793793739418</v>
       </c>
       <c r="D17">
-        <v>7.070277739269741</v>
+        <v>7.000313785916195</v>
       </c>
       <c r="E17">
         <v>6.535412393987149</v>
       </c>
       <c r="F17">
-        <v>6.422524327462092</v>
+        <v>6.420550145818935</v>
       </c>
       <c r="G17">
-        <v>6.357950228302325</v>
+        <v>6.292809252628169</v>
       </c>
       <c r="H17">
         <v>5.938528295894763</v>
       </c>
       <c r="I17">
-        <v>6.163219862697939</v>
+        <v>6.120603117776967</v>
       </c>
       <c r="J17">
-        <v>6.900571540474972</v>
+        <v>6.7736909842173</v>
       </c>
       <c r="K17">
-        <v>7.136751094440599</v>
+        <v>7.134101028147636</v>
       </c>
       <c r="L17">
         <v>7.258464660739715</v>
@@ -1326,7 +1326,7 @@
         <v>7.30667208790836</v>
       </c>
       <c r="E18">
-        <v>6.983859798377569</v>
+        <v>6.870591975660952</v>
       </c>
       <c r="F18">
         <v>6.661078735617917</v>
@@ -1335,13 +1335,13 @@
         <v>6.51192235607742</v>
       </c>
       <c r="H18">
-        <v>6.214997516825956</v>
+        <v>6.155186750824129</v>
       </c>
       <c r="I18">
-        <v>6.3599211273862</v>
+        <v>6.283430704093237</v>
       </c>
       <c r="J18">
-        <v>7.092279354618423</v>
+        <v>7.001403657576703</v>
       </c>
       <c r="K18">
         <v>7.494971577888013</v>
@@ -1373,13 +1373,13 @@
         <v>7.136949390984864</v>
       </c>
       <c r="F19">
-        <v>7.034627511525319</v>
+        <v>6.978325217049965</v>
       </c>
       <c r="G19">
-        <v>6.891571131597087</v>
+        <v>6.783621649397264</v>
       </c>
       <c r="H19">
-        <v>6.427656348827747</v>
+        <v>6.386330072287121</v>
       </c>
       <c r="I19">
         <v>6.521550601355831</v>
@@ -1420,13 +1420,13 @@
         <v>7.154995739626137</v>
       </c>
       <c r="G20">
-        <v>7.075340024336412</v>
+        <v>7.021680511385528</v>
       </c>
       <c r="H20">
         <v>6.570774514440068</v>
       </c>
       <c r="I20">
-        <v>6.795677732673496</v>
+        <v>6.740591213760473</v>
       </c>
       <c r="J20">
         <v>7.705531436767288</v>
@@ -1470,7 +1470,7 @@
         <v>6.737989155841195</v>
       </c>
       <c r="I21">
-        <v>7.074862245868847</v>
+        <v>6.986575359822184</v>
       </c>
       <c r="J21">
         <v>7.918980092432365</v>
@@ -1511,7 +1511,7 @@
         <v>7.430526548605401</v>
       </c>
       <c r="H22">
-        <v>6.89151050774883</v>
+        <v>6.812761986345111</v>
       </c>
       <c r="I22">
         <v>7.224368817531552</v>
@@ -1555,7 +1555,7 @@
         <v>7.630424856581971</v>
       </c>
       <c r="H23">
-        <v>7.035654071408242</v>
+        <v>6.952825668933012</v>
       </c>
       <c r="I23">
         <v>7.447732617248866</v>
@@ -1599,7 +1599,7 @@
         <v>7.841126822480033</v>
       </c>
       <c r="H24">
-        <v>7.106585119861757</v>
+        <v>7.093340429866335</v>
       </c>
       <c r="I24">
         <v>7.658525526026942</v>
@@ -2397,7 +2397,7 @@
         <v>27</v>
       </c>
       <c r="D15">
-        <v>6.324579343023223</v>
+        <v>6.200259585932328</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -2443,7 +2443,7 @@
         <v>29</v>
       </c>
       <c r="D17">
-        <v>6.900571540474972</v>
+        <v>6.7736909842173</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -2466,7 +2466,7 @@
         <v>30</v>
       </c>
       <c r="D18">
-        <v>7.092279354618423</v>
+        <v>7.001403657576703</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -3295,7 +3295,7 @@
         <v>26</v>
       </c>
       <c r="D14">
-        <v>6.356263569812953</v>
+        <v>6.226709285150091</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3318,7 +3318,7 @@
         <v>27</v>
       </c>
       <c r="D15">
-        <v>6.548668249056991</v>
+        <v>6.548625524304712</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -3341,7 +3341,7 @@
         <v>28</v>
       </c>
       <c r="D16">
-        <v>7.038112380235664</v>
+        <v>6.83857291476458</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -3364,7 +3364,7 @@
         <v>29</v>
       </c>
       <c r="D17">
-        <v>7.136751094440599</v>
+        <v>7.134101028147636</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -4222,7 +4222,7 @@
         <v>26</v>
       </c>
       <c r="D14">
-        <v>6.399281299992734</v>
+        <v>6.280524233815036</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -4245,7 +4245,7 @@
         <v>27</v>
       </c>
       <c r="D15">
-        <v>6.808479641402742</v>
+        <v>6.77349986950787</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -4268,7 +4268,7 @@
         <v>28</v>
       </c>
       <c r="D16">
-        <v>7.093204709887928</v>
+        <v>7.004091608275051</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -5152,7 +5152,7 @@
         <v>26</v>
       </c>
       <c r="D14">
-        <v>6.429515903913558</v>
+        <v>6.319915933542103</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -5175,7 +5175,7 @@
         <v>27</v>
       </c>
       <c r="D15">
-        <v>6.804518993284371</v>
+        <v>6.756039347987783</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -5198,7 +5198,7 @@
         <v>28</v>
       </c>
       <c r="D16">
-        <v>7.107853824111216</v>
+        <v>7.10093700329976</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -6044,7 +6044,7 @@
         <v>25</v>
       </c>
       <c r="D13">
-        <v>6.13025947614142</v>
+        <v>6.124938087420014</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -6067,7 +6067,7 @@
         <v>26</v>
       </c>
       <c r="D14">
-        <v>6.592785140249562</v>
+        <v>6.572196768447216</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -6090,7 +6090,7 @@
         <v>27</v>
       </c>
       <c r="D15">
-        <v>6.969674639087772</v>
+        <v>6.869226906679635</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -6976,7 +6976,7 @@
         <v>26</v>
       </c>
       <c r="D14">
-        <v>6.175312311474556</v>
+        <v>6.104260631162553</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -6999,7 +6999,7 @@
         <v>27</v>
       </c>
       <c r="D15">
-        <v>6.417661404184316</v>
+        <v>6.301891048870691</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -7022,7 +7022,7 @@
         <v>28</v>
       </c>
       <c r="D16">
-        <v>6.777528874209725</v>
+        <v>6.742501750480489</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -7045,7 +7045,7 @@
         <v>29</v>
       </c>
       <c r="D17">
-        <v>7.078650706205269</v>
+        <v>6.855580305962109</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -7883,7 +7883,7 @@
         <v>25</v>
       </c>
       <c r="D13">
-        <v>6.133657443538319</v>
+        <v>6.127418405781572</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -7906,7 +7906,7 @@
         <v>26</v>
       </c>
       <c r="D14">
-        <v>6.522270954380997</v>
+        <v>6.462910517568996</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -7929,7 +7929,7 @@
         <v>27</v>
       </c>
       <c r="D15">
-        <v>6.903388621668411</v>
+        <v>6.785672035018277</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -8803,7 +8803,7 @@
         <v>26</v>
       </c>
       <c r="D14">
-        <v>6.135807478460472</v>
+        <v>6.104540678677291</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -8826,7 +8826,7 @@
         <v>27</v>
       </c>
       <c r="D15">
-        <v>6.432576628330159</v>
+        <v>6.376395790513532</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -8849,7 +8849,7 @@
         <v>28</v>
       </c>
       <c r="D16">
-        <v>6.792403561581358</v>
+        <v>6.738106451659052</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -8872,7 +8872,7 @@
         <v>29</v>
       </c>
       <c r="D17">
-        <v>7.070277739269741</v>
+        <v>7.000313785916195</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -9717,7 +9717,7 @@
         <v>27</v>
       </c>
       <c r="D15">
-        <v>6.160134889973829</v>
+        <v>6.121230078868197</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -9740,7 +9740,7 @@
         <v>28</v>
       </c>
       <c r="D16">
-        <v>6.360413502423937</v>
+        <v>6.292997314610197</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -9786,7 +9786,7 @@
         <v>30</v>
       </c>
       <c r="D18">
-        <v>6.983859798377569</v>
+        <v>6.870591975660952</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -10637,7 +10637,7 @@
         <v>28</v>
       </c>
       <c r="D16">
-        <v>6.290527644876179</v>
+        <v>6.214665192127313</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -10660,7 +10660,7 @@
         <v>29</v>
       </c>
       <c r="D17">
-        <v>6.422524327462092</v>
+        <v>6.420550145818935</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -10706,7 +10706,7 @@
         <v>31</v>
       </c>
       <c r="D19">
-        <v>7.034627511525319</v>
+        <v>6.978325217049965</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -11531,7 +11531,7 @@
         <v>28</v>
       </c>
       <c r="D16">
-        <v>6.108099882165217</v>
+        <v>6.072786331362679</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -11554,7 +11554,7 @@
         <v>29</v>
       </c>
       <c r="D17">
-        <v>6.357950228302325</v>
+        <v>6.292809252628169</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -11600,7 +11600,7 @@
         <v>31</v>
       </c>
       <c r="D19">
-        <v>6.891571131597087</v>
+        <v>6.783621649397264</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -11623,7 +11623,7 @@
         <v>32</v>
       </c>
       <c r="D20">
-        <v>7.075340024336412</v>
+        <v>7.021680511385528</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -12468,7 +12468,7 @@
         <v>30</v>
       </c>
       <c r="D18">
-        <v>6.214997516825956</v>
+        <v>6.155186750824129</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -12491,7 +12491,7 @@
         <v>31</v>
       </c>
       <c r="D19">
-        <v>6.427656348827747</v>
+        <v>6.386330072287121</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -12560,7 +12560,7 @@
         <v>34</v>
       </c>
       <c r="D22">
-        <v>6.89151050774883</v>
+        <v>6.812761986345111</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -12583,7 +12583,7 @@
         <v>35</v>
       </c>
       <c r="D23">
-        <v>7.035654071408242</v>
+        <v>6.952825668933012</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -12606,7 +12606,7 @@
         <v>36</v>
       </c>
       <c r="D24">
-        <v>7.106585119861757</v>
+        <v>7.093340429866335</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -13345,7 +13345,7 @@
         <v>29</v>
       </c>
       <c r="D17">
-        <v>6.163219862697939</v>
+        <v>6.120603117776967</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -13368,7 +13368,7 @@
         <v>30</v>
       </c>
       <c r="D18">
-        <v>6.3599211273862</v>
+        <v>6.283430704093237</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -13414,7 +13414,7 @@
         <v>32</v>
       </c>
       <c r="D20">
-        <v>6.795677732673496</v>
+        <v>6.740591213760473</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         <v>33</v>
       </c>
       <c r="D21">
-        <v>7.074862245868847</v>
+        <v>6.986575359822184</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
